--- a/GradedExercise.xlsx
+++ b/GradedExercise.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christianr/Documents/workspace/swa-en/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7BBE31-6868-564A-9F96-4544DA2056B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3652EA-D8DD-A74C-875A-C9743BF5EE84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10400" yWindow="-21500" windowWidth="30440" windowHeight="21940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="2840" windowWidth="30440" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Bonus">Sheet1!$H$32</definedName>
-    <definedName name="Malus">Sheet1!$H$36</definedName>
-    <definedName name="TOTAL">Sheet1!$I$38</definedName>
-    <definedName name="TOTAL_POINTS">Sheet1!$I$32</definedName>
+    <definedName name="Bonus">Sheet1!$H$24</definedName>
+    <definedName name="Malus">Sheet1!$H$28</definedName>
+    <definedName name="TOTAL">Sheet1!$I$30</definedName>
+    <definedName name="TOTAL_POINTS">Sheet1!$I$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,35 +40,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>It works</t>
   </si>
   <si>
-    <t>Functionality</t>
-  </si>
-  <si>
-    <t>Navigation</t>
-  </si>
-  <si>
-    <t>User Input</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
     <t>General</t>
   </si>
   <si>
-    <t>Interactive UI</t>
-  </si>
-  <si>
     <t>Engineering</t>
   </si>
   <si>
-    <t>Input Validation</t>
-  </si>
-  <si>
     <t>Commit log</t>
   </si>
   <si>
@@ -81,12 +63,6 @@
     <t>Good naming</t>
   </si>
   <si>
-    <t>Not much duplication</t>
-  </si>
-  <si>
-    <t>Few dependencies</t>
-  </si>
-  <si>
     <t>Extra</t>
   </si>
   <si>
@@ -97,12 +73,6 @@
   </si>
   <si>
     <t>Particular effort</t>
-  </si>
-  <si>
-    <t>Exposing Services</t>
-  </si>
-  <si>
-    <t>Calling Services</t>
   </si>
   <si>
     <t>Criteria</t>
@@ -169,9 +139,6 @@
     <t>Continuous Assment Grade</t>
   </si>
   <si>
-    <t>Role-based Security</t>
-  </si>
-  <si>
     <t>Missing Tests</t>
   </si>
   <si>
@@ -184,7 +151,16 @@
     <t>Bonus</t>
   </si>
   <si>
-    <t>Description</t>
+    <t>License</t>
+  </si>
+  <si>
+    <t>Architecture</t>
+  </si>
+  <si>
+    <t>Description (POM, ...)</t>
+  </si>
+  <si>
+    <t>…</t>
   </si>
 </sst>
 </file>
@@ -648,19 +624,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I40"/>
+  <dimension ref="B1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="5" max="5" width="21.1640625" customWidth="1"/>
-    <col min="6" max="6" width="4.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.2">
@@ -668,25 +645,25 @@
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
@@ -694,7 +671,7 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -713,7 +690,7 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1">
         <v>20</v>
@@ -732,7 +709,7 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -740,43 +717,41 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10">
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1">
+        <v>15</v>
+      </c>
+      <c r="G10" s="3">
+        <f>SUM(G8:G9)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <f>MIN(C10,G10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="E11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D12">
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -784,266 +759,180 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
         <v>4</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1">
         <v>15</v>
       </c>
-      <c r="G14" s="3">
-        <f>SUM(G8:G13)</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <f>MIN(C14,G14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D16">
-        <v>5</v>
-      </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D17">
-        <v>5</v>
-      </c>
-      <c r="E17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G16" s="3">
+        <f>SUM(G12:G15)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <f>MIN(C16,G16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D18">
         <v>2</v>
       </c>
       <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
         <v>10</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D19">
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1">
+        <v>5</v>
+      </c>
+      <c r="G21" s="3">
+        <f>SUM(G18:G20)</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <f>MIN(C21,G21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="8">
+        <v>50</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="10">
+        <f>SUM(H4:H21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D27">
         <v>2</v>
       </c>
-      <c r="E19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="E27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B28" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="11">
+        <f>SUM(G26:G27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B30" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="1">
-        <v>15</v>
-      </c>
-      <c r="G22" s="3">
-        <f>SUM(G16:G21)</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <f>MIN(C22,G22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D27">
-        <v>5</v>
-      </c>
-      <c r="E27" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D28">
-        <v>5</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9">
+        <f>Bonus-Malus</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B32" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="1">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3">
-        <f>SUM(G24:G28)</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <f>MIN(C29,G29)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B32" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="8">
-        <v>50</v>
-      </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="10">
-        <f>SUM(H4:H29)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D34">
-        <v>5</v>
-      </c>
-      <c r="E34" t="s">
-        <v>30</v>
-      </c>
-      <c r="G34" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D35">
-        <v>2</v>
-      </c>
-      <c r="E35" t="s">
-        <v>31</v>
-      </c>
-      <c r="G35" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B36" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="11">
-        <f>SUM(G34:G35)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B38" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9">
-        <f>Bonus-Malus</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B40" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="5">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="5">
         <f>1 + TOTAL/10</f>
         <v>1</v>
       </c>

--- a/GradedExercise.xlsx
+++ b/GradedExercise.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christianr/Documents/workspace/swa-en/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3652EA-D8DD-A74C-875A-C9743BF5EE84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6C7DB3-A91B-8543-837B-1FE3927066C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="2840" windowWidth="30440" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8660" yWindow="-21300" windowWidth="30440" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Bonus">Sheet1!$H$24</definedName>
-    <definedName name="Malus">Sheet1!$H$28</definedName>
-    <definedName name="TOTAL">Sheet1!$I$30</definedName>
-    <definedName name="TOTAL_POINTS">Sheet1!$I$24</definedName>
+    <definedName name="Bonus">Sheet1!$H$26</definedName>
+    <definedName name="Malus">Sheet1!$H$30</definedName>
+    <definedName name="TOTAL">Sheet1!$I$32</definedName>
+    <definedName name="TOTAL_POINTS">Sheet1!$I$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>It works</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Commit log</t>
   </si>
   <si>
-    <t>Comments</t>
-  </si>
-  <si>
     <t>Tests</t>
   </si>
   <si>
@@ -66,13 +63,7 @@
     <t>Extra</t>
   </si>
   <si>
-    <t>Technical challenge</t>
-  </si>
-  <si>
     <t>Artistic value</t>
-  </si>
-  <si>
-    <t>Particular effort</t>
   </si>
   <si>
     <t>Criteria</t>
@@ -157,10 +148,28 @@
     <t>Architecture</t>
   </si>
   <si>
-    <t>Description (POM, ...)</t>
-  </si>
-  <si>
-    <t>…</t>
+    <t>Description (POM file, index.html, Markdown file)</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Client component exchangeable</t>
+  </si>
+  <si>
+    <t>Repository component exchangeable</t>
+  </si>
+  <si>
+    <t>Comments, documentation</t>
+  </si>
+  <si>
+    <t>Minimum requirements</t>
+  </si>
+  <si>
+    <t>Particular effort, technical challenge</t>
+  </si>
+  <si>
+    <t>Other (extensions)</t>
   </si>
 </sst>
 </file>
@@ -624,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I32"/>
+  <dimension ref="B1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -636,48 +645,52 @@
     <col min="2" max="2" width="18.1640625" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" customWidth="1"/>
+    <col min="5" max="5" width="44" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
       <c r="I2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D4">
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D5">
         <v>15</v>
       </c>
@@ -688,7 +701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
@@ -704,105 +717,111 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="1">
-        <v>15</v>
-      </c>
-      <c r="G10" s="3">
-        <f>SUM(G8:G9)</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <f>MIN(C10,G10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D12">
         <v>5</v>
       </c>
       <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="1">
+        <v>15</v>
+      </c>
+      <c r="G13" s="3">
+        <f>SUM(G8:G12)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <f>MIN(C13,G13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
         <v>3</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D13">
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D16">
         <v>5</v>
       </c>
-      <c r="E13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="E16" t="s">
         <v>4</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="1">
-        <v>15</v>
-      </c>
-      <c r="G16" s="3">
-        <f>SUM(G12:G15)</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="3">
-        <f>MIN(C16,G16)</f>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17">
         <v>0</v>
       </c>
     </row>
@@ -811,128 +830,144 @@
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D19">
+      <c r="B19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>15</v>
+      </c>
+      <c r="G19" s="3">
+        <f>SUM(G15:G18)</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <f>MIN(C19,G19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D21">
         <v>5</v>
       </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D20">
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D22">
         <v>5</v>
       </c>
-      <c r="E20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="1">
+      <c r="E22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="1">
         <v>5</v>
       </c>
-      <c r="G21" s="3">
-        <f>SUM(G18:G20)</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
-        <f>MIN(C21,G21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="8">
+      <c r="G23" s="3">
+        <f>SUM(G21:G22)</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <f>MIN(C23,G23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="8">
         <v>50</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="10">
-        <f>SUM(H4:H21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D26">
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="10">
+        <f>SUM(H4:H23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D28">
         <v>5</v>
       </c>
-      <c r="E26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D27">
+      <c r="E28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D29">
         <v>2</v>
       </c>
-      <c r="E27" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="11">
-        <f>SUM(G26:G27)</f>
+      <c r="E29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B30" s="9" t="s">
-        <v>13</v>
+      <c r="B30" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9">
+      <c r="H30" s="11">
+        <f>SUM(G28:G29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B32" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9">
         <f>Bonus-Malus</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B32" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="5">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="5">
         <f>1 + TOTAL/10</f>
         <v>1</v>
       </c>

--- a/GradedExercise.xlsx
+++ b/GradedExercise.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christianr/Documents/workspace/swa-en/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6C7DB3-A91B-8543-837B-1FE3927066C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2C3EAF-E9FE-FC4E-BAFA-77D2E29F8DFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8660" yWindow="-21300" windowWidth="30440" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7300" yWindow="-19940" windowWidth="30440" windowHeight="18400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,9 +54,6 @@
     <t>Commit log</t>
   </si>
   <si>
-    <t>Tests</t>
-  </si>
-  <si>
     <t>Good naming</t>
   </si>
   <si>
@@ -148,15 +145,9 @@
     <t>Architecture</t>
   </si>
   <si>
-    <t>Description (POM file, index.html, Markdown file)</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>Client component exchangeable</t>
-  </si>
-  <si>
     <t>Repository component exchangeable</t>
   </si>
   <si>
@@ -170,6 +161,15 @@
   </si>
   <si>
     <t>Other (extensions)</t>
+  </si>
+  <si>
+    <t>Description (POM file, index.html, Markdown file, Component/class diagram)</t>
+  </si>
+  <si>
+    <t>Tests (mind. 1 Integrationtest)</t>
+  </si>
+  <si>
+    <t>View component exchangeable</t>
   </si>
 </sst>
 </file>
@@ -636,7 +636,7 @@
   <dimension ref="B1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -645,7 +645,7 @@
     <col min="2" max="2" width="18.1640625" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="44" customWidth="1"/>
+    <col min="5" max="5" width="70.6640625" customWidth="1"/>
     <col min="6" max="6" width="14.5" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
   </cols>
@@ -655,28 +655,28 @@
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
@@ -684,7 +684,7 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -744,7 +744,7 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -774,7 +774,7 @@
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1">
         <v>15</v>
@@ -808,7 +808,7 @@
         <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23" s="1">
         <v>5</v>
@@ -892,7 +892,7 @@
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C26" s="8">
         <v>50</v>
@@ -911,7 +911,7 @@
         <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G28" s="6">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G29" s="6">
         <v>0</v>
@@ -930,7 +930,7 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -944,7 +944,7 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -959,7 +959,7 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>

--- a/GradedExercise.xlsx
+++ b/GradedExercise.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christianr/Documents/workspace/swa-en/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christianr/Temp/FHNW_SWA_Bibliothek/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2C3EAF-E9FE-FC4E-BAFA-77D2E29F8DFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03AD63DA-962A-EF4C-831F-8C7292DC0F6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7300" yWindow="-19940" windowWidth="30440" windowHeight="18400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>It works</t>
   </si>
@@ -170,6 +170,18 @@
   </si>
   <si>
     <t>View component exchangeable</t>
+  </si>
+  <si>
+    <t>Delete function present</t>
+  </si>
+  <si>
+    <t>No one single test found. What a pity!</t>
+  </si>
+  <si>
+    <t>Minimalistic project description but class/component diagram present</t>
+  </si>
+  <si>
+    <t>15 commits</t>
   </si>
 </sst>
 </file>
@@ -636,7 +648,7 @@
   <dimension ref="B1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -647,7 +659,7 @@
     <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="5" max="5" width="70.6640625" customWidth="1"/>
     <col min="6" max="6" width="14.5" customWidth="1"/>
-    <col min="10" max="10" width="21" customWidth="1"/>
+    <col min="10" max="10" width="61.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.2">
@@ -687,7 +699,10 @@
         <v>27</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
@@ -698,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
@@ -710,11 +725,11 @@
       </c>
       <c r="G6" s="3">
         <f>SUM(G4:G5)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H6" s="3">
         <f>MIN(C6,G6)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
@@ -725,7 +740,7 @@
         <v>19</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -736,7 +751,7 @@
         <v>29</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -747,7 +762,7 @@
         <v>22</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -758,7 +773,7 @@
         <v>24</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
@@ -769,7 +784,10 @@
         <v>26</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="J12" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
@@ -781,11 +799,11 @@
       </c>
       <c r="G13" s="3">
         <f>SUM(G8:G12)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H13" s="3">
         <f>MIN(C13,G13)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
@@ -800,7 +818,10 @@
         <v>3</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="J15" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
@@ -812,6 +833,9 @@
       </c>
       <c r="G16">
         <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
@@ -822,7 +846,7 @@
         <v>23</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
@@ -833,7 +857,7 @@
         <v>4</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
@@ -845,11 +869,11 @@
       </c>
       <c r="G19" s="3">
         <f>SUM(G15:G18)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H19" s="3">
         <f>MIN(C19,G19)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
@@ -903,7 +927,7 @@
       <c r="G26" s="9"/>
       <c r="H26" s="10">
         <f>SUM(H4:H23)</f>
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
@@ -914,7 +938,7 @@
         <v>15</v>
       </c>
       <c r="G28" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
@@ -939,7 +963,7 @@
       <c r="G30" s="9"/>
       <c r="H30" s="11">
         <f>SUM(G28:G29)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
@@ -954,7 +978,7 @@
       <c r="H32" s="9"/>
       <c r="I32" s="9">
         <f>Bonus-Malus</f>
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
@@ -969,7 +993,7 @@
       <c r="H34" s="4"/>
       <c r="I34" s="5">
         <f>1 + TOTAL/10</f>
-        <v>1</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
   </sheetData>
